--- a/src/main/TestData/testcase.xlsx
+++ b/src/main/TestData/testcase.xlsx
@@ -9,35 +9,65 @@
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
-  <si>
-    <t>caseDecription</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
+  <si>
+    <t>desc</t>
   </si>
   <si>
     <t>url</t>
   </si>
   <si>
+    <t>method</t>
+  </si>
+  <si>
     <t>param</t>
   </si>
   <si>
-    <t>method</t>
-  </si>
-  <si>
-    <t>登录接口</t>
-  </si>
-  <si>
-    <t>10.61.11.125:8088/v1/user/login.do</t>
-  </si>
-  <si>
-    <t>[{"key":"username","value":"wangwua"},{"key":"password","value":"wangwua123"}]</t>
+    <t>ExpectResult</t>
+  </si>
+  <si>
+    <t>登录</t>
+  </si>
+  <si>
+    <t>http://10.61.11.125:8088/v1/user/login.do</t>
   </si>
   <si>
     <t>post</t>
+  </si>
+  <si>
+    <t>{"username":"wangwua","password":"wangwua123"}</t>
+  </si>
+  <si>
+    <t>{
+    "status": 0,
+    "msg": "success",
+    "data": {
+        "id": 25,
+        "username": "wangwua",
+        "password": "9F096562326861D7226EDF730F23616C",
+        "email": "wangwua123@qq.com",
+        "phone": null,
+        "question": null,
+        "answer": null,
+        "role": 0,
+        "createTime": 1560973698000,
+        "updateTime": 1560973698000
+    }
+}</t>
+  </si>
+  <si>
+    <t>获取用户登录信息</t>
+  </si>
+  <si>
+    <t>http://10.61.11.125:8088/v1/user/getUserInfo.do</t>
+  </si>
+  <si>
+    <t>get</t>
   </si>
 </sst>
 </file>
@@ -45,10 +75,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -59,6 +89,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -66,18 +104,56 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -89,11 +165,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -105,8 +217,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -114,90 +227,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,187 +242,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,7 +449,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -439,6 +484,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -454,17 +508,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -483,179 +533,165 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -976,20 +1012,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="15.1428571428571" customWidth="1"/>
-    <col min="2" max="2" width="35.0714285714286" customWidth="1"/>
-    <col min="3" max="3" width="82.9285714285714" customWidth="1"/>
+    <col min="1" max="1" width="19.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="45.0714285714286" customWidth="1"/>
+    <col min="4" max="4" width="52.5714285714286" customWidth="1"/>
+    <col min="5" max="5" width="69.1964285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1002,22 +1039,46 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" ht="282" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
         <v>5</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" ht="282" spans="1:5">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="http://10.61.11.125:8088/v1/user/login.do" tooltip="http://10.61.11.125:8088/v1/user/login.do"/>
+    <hyperlink ref="B3" r:id="rId2" display="http://10.61.11.125:8088/v1/user/getUserInfo.do"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>

--- a/src/main/TestData/testcase.xlsx
+++ b/src/main/TestData/testcase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11940"/>
+    <workbookView windowHeight="17520"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
     <t>登录</t>
   </si>
   <si>
-    <t>http://10.61.11.125:8088/v1/user/login.do</t>
+    <t>http://47.103.208.180:8086/v1/user/login.do</t>
   </si>
   <si>
     <t>post</t>
@@ -64,7 +64,7 @@
     <t>获取用户登录信息</t>
   </si>
   <si>
-    <t>http://10.61.11.125:8088/v1/user/getUserInfo.do</t>
+    <t>http://47.103.208.180:8086/v1/user/getUserInfo.do</t>
   </si>
   <si>
     <t>get</t>
@@ -75,9 +75,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -98,6 +98,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -105,29 +127,84 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -143,91 +220,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,31 +248,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -284,145 +356,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,8 +439,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -448,8 +448,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -469,6 +469,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -480,15 +495,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,17 +525,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,124 +538,124 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -664,22 +664,22 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1015,7 +1015,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="2" outlineLevelCol="4"/>
@@ -1076,8 +1076,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://10.61.11.125:8088/v1/user/login.do" tooltip="http://10.61.11.125:8088/v1/user/login.do"/>
-    <hyperlink ref="B3" r:id="rId2" display="http://10.61.11.125:8088/v1/user/getUserInfo.do"/>
+    <hyperlink ref="B2" r:id="rId1" display="http://47.103.208.180:8086/v1/user/login.do" tooltip="http://47.103.208.180:8086/v1/user/login.do"/>
+    <hyperlink ref="B3" r:id="rId2" display="http://47.103.208.180:8086/v1/user/getUserInfo.do" tooltip="http://47.103.208.180:8086/v1/user/getUserInfo.do"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/src/main/TestData/testcase.xlsx
+++ b/src/main/TestData/testcase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17520"/>
+    <workbookView windowHeight="17700"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -75,10 +75,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -98,7 +98,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -112,38 +126,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -157,9 +173,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,13 +195,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -189,7 +205,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,30 +223,6 @@
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -248,19 +248,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -272,43 +398,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -320,109 +416,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,8 +439,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -448,23 +448,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -484,17 +469,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,6 +501,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -524,42 +533,33 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -568,94 +568,94 @@
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -664,22 +664,22 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1015,7 +1015,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="2" outlineLevelCol="4"/>
